--- a/data_model/tourism_dataset/fine_tuning_ask_and_answer_tourism_assistant.xlsx
+++ b/data_model/tourism_dataset/fine_tuning_ask_and_answer_tourism_assistant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loc/Desktop/2024/Git/mse/researching_llm/tourism-assistant/data_model/tourism_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22660E29-BEE0-D149-8921-4A3ECB35AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CDA270-3CD4-0F41-90E3-B9B4B52B53B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1860" windowWidth="25800" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32000" yWindow="5680" windowWidth="23600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
